--- a/GUI/bin/Debug/PhieuNhapHang.xlsx
+++ b/GUI/bin/Debug/PhieuNhapHang.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="B:\Hoc tap\HK7\CNPMNC\DoAn\PhanMemQuanLyCuaHangGauBong\PhanMemQuanLyCuaHangBanGauBong\GUI\bin\Debug\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5248B3F6-2BBE-4E42-A97F-B7CB727E3BDA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4182F490-1710-47FF-9305-D7036A66D6BF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="37">
   <si>
     <t>%NgayThangNam</t>
   </si>
@@ -146,9 +146,6 @@
   <si>
     <t xml:space="preserve">          Địa chỉ :  140 Lê Trọng Tấn, Phường Tây Thạnh, 
                                           Quận Tân Phú</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   Số ĐT: (083) 8221113 </t>
   </si>
   <si>
     <r>
@@ -506,6 +503,9 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
@@ -523,9 +523,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1093,7 +1090,7 @@
   <dimension ref="G1:M28"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="I21" sqref="I21"/>
+      <selection activeCell="G1" sqref="G1:I3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1121,24 +1118,22 @@
       <c r="M1" s="7"/>
     </row>
     <row r="2" spans="7:13" ht="22.9" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="G2" s="22" t="s">
+      <c r="G2" s="23" t="s">
         <v>26</v>
       </c>
-      <c r="H2" s="23"/>
-      <c r="I2" s="23"/>
+      <c r="H2" s="24"/>
+      <c r="I2" s="24"/>
       <c r="M2" s="9"/>
     </row>
     <row r="3" spans="7:13" ht="28.9" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="G3" s="24"/>
-      <c r="H3" s="23"/>
-      <c r="I3" s="23"/>
+      <c r="G3" s="25"/>
+      <c r="H3" s="24"/>
+      <c r="I3" s="24"/>
       <c r="M3" s="9"/>
     </row>
     <row r="4" spans="7:13" ht="22.9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="G4" s="8"/>
-      <c r="H4" s="1" t="s">
-        <v>27</v>
-      </c>
+      <c r="H4" s="1"/>
       <c r="M4" s="9"/>
     </row>
     <row r="5" spans="7:13" ht="8.4499999999999993" customHeight="1" x14ac:dyDescent="0.2">
@@ -1148,7 +1143,7 @@
     <row r="6" spans="7:13" ht="28.15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="G6" s="8"/>
       <c r="I6" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="M6" s="9"/>
     </row>
@@ -1230,19 +1225,19 @@
         <v>14</v>
       </c>
       <c r="H15" s="3" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="I15" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="J15" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="J15" s="3" t="s">
+      <c r="K15" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="K15" s="3" t="s">
+      <c r="L15" s="3" t="s">
         <v>34</v>
-      </c>
-      <c r="L15" s="3" t="s">
-        <v>35</v>
       </c>
       <c r="M15" s="11"/>
     </row>
@@ -1258,13 +1253,13 @@
       <c r="M16" s="12"/>
     </row>
     <row r="17" spans="7:13" ht="20.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="G17" s="25" t="s">
-        <v>29</v>
-      </c>
-      <c r="H17" s="26"/>
-      <c r="I17" s="26"/>
-      <c r="J17" s="26"/>
-      <c r="K17" s="27"/>
+      <c r="G17" s="26" t="s">
+        <v>28</v>
+      </c>
+      <c r="H17" s="27"/>
+      <c r="I17" s="27"/>
+      <c r="J17" s="27"/>
+      <c r="K17" s="28"/>
       <c r="L17" s="4" t="s">
         <v>16</v>
       </c>
@@ -1279,12 +1274,12 @@
         <v>19</v>
       </c>
       <c r="I19" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="J19" s="1"/>
       <c r="K19" s="1"/>
       <c r="L19" s="1"/>
-      <c r="M19" s="28"/>
+      <c r="M19" s="22"/>
     </row>
     <row r="20" spans="7:13" ht="20.45" customHeight="1" x14ac:dyDescent="0.2">
       <c r="G20" s="8" t="s">
@@ -1295,7 +1290,7 @@
     <row r="21" spans="7:13" ht="16.149999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="G21" s="8"/>
       <c r="J21" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="M21" s="9"/>
     </row>
@@ -1341,7 +1336,7 @@
       <c r="I28" s="14"/>
       <c r="J28" s="14"/>
       <c r="K28" s="14" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="L28" s="14"/>
       <c r="M28" s="15"/>
